--- a/doc/君悦LORA振动传感器_硬件BUG记录_20191120.xlsx
+++ b/doc/君悦LORA振动传感器_硬件BUG记录_20191120.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="1680" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="20370" yWindow="2580" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>硬件</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>推荐加上丝印，并且同一类型的下载口（串口等）的始终使用同样的排线顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU和LORA的串口接错了，RX接RX，TX接TX了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -247,19 +251,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,6 +268,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +557,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,33 +570,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
@@ -600,22 +604,22 @@
       <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -639,7 +643,7 @@
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -666,8 +670,12 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -866,16 +874,16 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -964,16 +972,16 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">

--- a/doc/君悦LORA振动传感器_硬件BUG记录_20191120.xlsx
+++ b/doc/君悦LORA振动传感器_硬件BUG记录_20191120.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="2580" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="20370" yWindow="3030" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>硬件</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,9 @@
   <si>
     <t>MCU和LORA的串口接错了，RX接RX，TX接TX了</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi和lora的串口2不是默认的串口2， 需要重映射，改版的时候改一下</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -685,7 +688,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
